--- a/Files/docs/A7 - Bill of Materials.xlsx
+++ b/Files/docs/A7 - Bill of Materials.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="UDIQPtbnsey6Luvhi/aqS1IvhLGQRSxHouQOEVpCydk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="jOa8ESE0NuRiHClxdLSP5rLHGC2WHZ9EzgJqbagQXRU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>ECE477 Bill of Materials v1.0</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Created: 09/21/2023</t>
   </si>
   <si>
-    <t>Last Modified: 09/23/2023</t>
+    <t>Last Modified: 10/11/2023</t>
   </si>
   <si>
     <t>Project_Component</t>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>HCCOIC0041</t>
+  </si>
+  <si>
+    <t>24V Power Supply</t>
+  </si>
+  <si>
+    <t>24V</t>
   </si>
   <si>
     <t>Mechanical</t>
@@ -892,10 +898,16 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="13"/>
+      <c r="A15" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -904,272 +916,260 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="10"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="A17" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="14"/>
+      <c r="I18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J19" s="14"/>
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="H20" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20" s="14"/>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G21" s="14"/>
       <c r="H21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>69</v>
+      <c r="I21" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="J21" s="14"/>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J22" s="14"/>
     </row>
     <row r="23">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="10"/>
+      <c r="F23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="14"/>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="10"/>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="A25" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>79</v>
-      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="10"/>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" s="18"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="14"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="13" t="s">
@@ -1178,20 +1178,43 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="13" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="10"/>
+      <c r="G29" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="10"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
@@ -2162,21 +2185,22 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:J25"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I29:J29"/>
     <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A9:J9"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G14"/>
